--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y301"/>
+  <dimension ref="A1:Y303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="R300" s="2" t="inlineStr"/>
     </row>
-    <row r="301">
+    <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
           <t>A 40265-2023</t>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19004,6 +19004,120 @@
         <v>0</v>
       </c>
       <c r="R301" s="2" t="inlineStr"/>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>A 42721-2023</t>
+        </is>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>ÖVERKALIX</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" s="2" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>A 43099-2023</t>
+        </is>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C303" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>ÖVERKALIX</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 65265-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 65265-2019.xlsx", "A 65265-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 65265-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 65265-2019.png", "A 65265-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 65265-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 65265-2019.docx", "A 65265-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 65265-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 65265-2019.docx", "A 65265-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 65265-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 65265-2019.docx", "A 65265-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 65265-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 65265-2019.docx", "A 65265-2019")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 67415-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 67415-2020.xlsx", "A 67415-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 67415-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 67415-2020.png", "A 67415-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 67415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 67415-2020.docx", "A 67415-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 67415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 67415-2020.docx", "A 67415-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 67415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 67415-2020.docx", "A 67415-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 67415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 67415-2020.docx", "A 67415-2020")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,27 +810,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 18165-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 18165-2019.xlsx", "A 18165-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 18165-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 18165-2019.png", "A 18165-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 18165-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 18165-2019.docx", "A 18165-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 18165-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 18165-2019.docx", "A 18165-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 18165-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 18165-2019.docx", "A 18165-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 18165-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 18165-2019.docx", "A 18165-2019")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -902,27 +902,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 31744-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 31744-2019.xlsx", "A 31744-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 31744-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 31744-2019.png", "A 31744-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 31744-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 31744-2019.docx", "A 31744-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 31744-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 31744-2019.docx", "A 31744-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 31744-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 31744-2019.docx", "A 31744-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 31744-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 31744-2019.docx", "A 31744-2019")</f>
         <v/>
       </c>
     </row>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -994,27 +994,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 60554-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 60554-2021.xlsx", "A 60554-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 60554-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 60554-2021.png", "A 60554-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 60554-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 60554-2021.docx", "A 60554-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 60554-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 60554-2021.docx", "A 60554-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 60554-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 60554-2021.docx", "A 60554-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 60554-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 60554-2021.docx", "A 60554-2021")</f>
         <v/>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,27 +1086,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 38022-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 38022-2022.xlsx", "A 38022-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 38022-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 38022-2022.png", "A 38022-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 38022-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 38022-2022.docx", "A 38022-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 38022-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 38022-2022.docx", "A 38022-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 38022-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 38022-2022.docx", "A 38022-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 38022-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 38022-2022.docx", "A 38022-2022")</f>
         <v/>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,31 +1177,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 63693-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 63693-2019.xlsx", "A 63693-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 63693-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 63693-2019.png", "A 63693-2019")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/knärot/A 63693-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/knärot/A 63693-2019.png", "A 63693-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 63693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 63693-2019.docx", "A 63693-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 63693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 63693-2019.docx", "A 63693-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 63693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 63693-2019.docx", "A 63693-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 63693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 63693-2019.docx", "A 63693-2019")</f>
         <v/>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,27 +1272,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 13143-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 13143-2020.xlsx", "A 13143-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 13143-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 13143-2020.png", "A 13143-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 13143-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 13143-2020.docx", "A 13143-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 13143-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 13143-2020.docx", "A 13143-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 13143-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 13143-2020.docx", "A 13143-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 13143-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 13143-2020.docx", "A 13143-2020")</f>
         <v/>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,27 +1363,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 51552-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 51552-2020.xlsx", "A 51552-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 51552-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 51552-2020.png", "A 51552-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 51552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 51552-2020.docx", "A 51552-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 51552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 51552-2020.docx", "A 51552-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 51552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 51552-2020.docx", "A 51552-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 51552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 51552-2020.docx", "A 51552-2020")</f>
         <v/>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,27 +1454,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 52326-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 52326-2021.xlsx", "A 52326-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 52326-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 52326-2021.png", "A 52326-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 52326-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 52326-2021.docx", "A 52326-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 52326-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 52326-2021.docx", "A 52326-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 52326-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 52326-2021.docx", "A 52326-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 52326-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 52326-2021.docx", "A 52326-2021")</f>
         <v/>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,27 +1545,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 5797-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 5797-2022.xlsx", "A 5797-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 5797-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 5797-2022.png", "A 5797-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 5797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 5797-2022.docx", "A 5797-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 5797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 5797-2022.docx", "A 5797-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 5797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 5797-2022.docx", "A 5797-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 5797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 5797-2022.docx", "A 5797-2022")</f>
         <v/>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,27 +1631,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 15139-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 15139-2022.xlsx", "A 15139-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 15139-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 15139-2022.png", "A 15139-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 15139-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 15139-2022.docx", "A 15139-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 15139-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 15139-2022.docx", "A 15139-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 15139-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 15139-2022.docx", "A 15139-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 15139-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 15139-2022.docx", "A 15139-2022")</f>
         <v/>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,27 +1717,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 24767-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 24767-2022.xlsx", "A 24767-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 24767-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 24767-2022.png", "A 24767-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 24767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 24767-2022.docx", "A 24767-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 24767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 24767-2022.docx", "A 24767-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 24767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 24767-2022.docx", "A 24767-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 24767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 24767-2022.docx", "A 24767-2022")</f>
         <v/>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1808,27 +1808,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 60480-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 60480-2022.xlsx", "A 60480-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 60480-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 60480-2022.png", "A 60480-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 60480-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 60480-2022.docx", "A 60480-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 60480-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 60480-2022.docx", "A 60480-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 60480-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 60480-2022.docx", "A 60480-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 60480-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 60480-2022.docx", "A 60480-2022")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1898,27 +1898,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 68016-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 68016-2018.xlsx", "A 68016-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 68016-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 68016-2018.png", "A 68016-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 68016-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 68016-2018.docx", "A 68016-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 68016-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 68016-2018.docx", "A 68016-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 68016-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 68016-2018.docx", "A 68016-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 68016-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 68016-2018.docx", "A 68016-2018")</f>
         <v/>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,27 +1983,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 36333-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 36333-2019.xlsx", "A 36333-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 36333-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 36333-2019.png", "A 36333-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 36333-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 36333-2019.docx", "A 36333-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 36333-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 36333-2019.docx", "A 36333-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 36333-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 36333-2019.docx", "A 36333-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 36333-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 36333-2019.docx", "A 36333-2019")</f>
         <v/>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2068,27 +2068,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 58502-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 58502-2019.xlsx", "A 58502-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 58502-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 58502-2019.png", "A 58502-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 58502-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 58502-2019.docx", "A 58502-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 58502-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 58502-2019.docx", "A 58502-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 58502-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 58502-2019.docx", "A 58502-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 58502-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 58502-2019.docx", "A 58502-2019")</f>
         <v/>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,27 +2158,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 13142-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 13142-2020.xlsx", "A 13142-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 13142-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 13142-2020.png", "A 13142-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 13142-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 13142-2020.docx", "A 13142-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 13142-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 13142-2020.docx", "A 13142-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 13142-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 13142-2020.docx", "A 13142-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 13142-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 13142-2020.docx", "A 13142-2020")</f>
         <v/>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2248,27 +2248,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 43680-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 43680-2021.xlsx", "A 43680-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 43680-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 43680-2021.png", "A 43680-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 43680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 43680-2021.docx", "A 43680-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 43680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 43680-2021.docx", "A 43680-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 43680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 43680-2021.docx", "A 43680-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 43680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 43680-2021.docx", "A 43680-2021")</f>
         <v/>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,27 +2338,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 60509-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 60509-2021.xlsx", "A 60509-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 60509-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 60509-2021.png", "A 60509-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 60509-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 60509-2021.docx", "A 60509-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 60509-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 60509-2021.docx", "A 60509-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 60509-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 60509-2021.docx", "A 60509-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 60509-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 60509-2021.docx", "A 60509-2021")</f>
         <v/>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,27 +2428,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 60546-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 60546-2021.xlsx", "A 60546-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 60546-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 60546-2021.png", "A 60546-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 60546-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 60546-2021.docx", "A 60546-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 60546-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 60546-2021.docx", "A 60546-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 60546-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 60546-2021.docx", "A 60546-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 60546-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 60546-2021.docx", "A 60546-2021")</f>
         <v/>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,27 +2518,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 14904-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 14904-2022.xlsx", "A 14904-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 14904-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 14904-2022.png", "A 14904-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 14904-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 14904-2022.docx", "A 14904-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 14904-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 14904-2022.docx", "A 14904-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 14904-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 14904-2022.docx", "A 14904-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 14904-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 14904-2022.docx", "A 14904-2022")</f>
         <v/>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,27 +2603,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 15137-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 15137-2022.xlsx", "A 15137-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 15137-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 15137-2022.png", "A 15137-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 15137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 15137-2022.docx", "A 15137-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 15137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 15137-2022.docx", "A 15137-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 15137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 15137-2022.docx", "A 15137-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 15137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 15137-2022.docx", "A 15137-2022")</f>
         <v/>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,27 +2693,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 25651-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 25651-2022.xlsx", "A 25651-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 25651-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 25651-2022.png", "A 25651-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 25651-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 25651-2022.docx", "A 25651-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 25651-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 25651-2022.docx", "A 25651-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 25651-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 25651-2022.docx", "A 25651-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 25651-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 25651-2022.docx", "A 25651-2022")</f>
         <v/>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2783,27 +2783,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 36435-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 36435-2023.xlsx", "A 36435-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 36435-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 36435-2023.png", "A 36435-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 36435-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 36435-2023.docx", "A 36435-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 36435-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 36435-2023.docx", "A 36435-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 36435-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 36435-2023.docx", "A 36435-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 36435-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 36435-2023.docx", "A 36435-2023")</f>
         <v/>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2873,27 +2873,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 40263-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 40263-2023.xlsx", "A 40263-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 40263-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 40263-2023.png", "A 40263-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 40263-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 40263-2023.docx", "A 40263-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 40263-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 40263-2023.docx", "A 40263-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 40263-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 40263-2023.docx", "A 40263-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 40263-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 40263-2023.docx", "A 40263-2023")</f>
         <v/>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43335</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43340</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43341</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43346</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43419</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43427</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43437</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43460</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43467</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43511</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43616</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43684</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43685</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43689</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43695</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43700</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43706</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43738</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43742</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43752</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43756</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43763</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43773</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43777</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43782</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43783</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43791</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43843</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43844</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43888</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43892</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>43896</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>43903</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43914</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43945</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43958</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43969</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43977</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43987</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44011</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44012</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44026</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44082</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44085</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44092</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>44124</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44153</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44159</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44160</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44181</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44182</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44194</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>44208</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44242</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44244</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44281</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44312</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44347</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44348</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44374</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44393</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44424</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44425</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44433</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44438</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44448</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44460</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44466</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44503</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44508</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44510</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44539</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44573</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44575</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44595</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44602</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44603</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44645</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44648</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44658</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44659</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44683</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44698</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44711</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44715</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44717</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44718</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44722</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44791</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44797</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44798</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44806</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44820</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44825</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44830</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44834</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44862</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44872</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44873</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44879</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44880</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44883</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44886</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44890</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44894</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44897</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44899</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44908</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44913</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44930</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44964</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44966</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44984</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45009</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45072</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45075</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>45076</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45078</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45085</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45092</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45097</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45141</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45142</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45153</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45154</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y303"/>
+  <dimension ref="A1:Y304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,14 +2810,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 40263-2023</t>
+          <t>A 40265-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2869,102 +2869,135 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 40265-2023.xlsx", "A 40265-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 40265-2023.png", "A 40265-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 40265-2023.docx", "A 40265-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 40265-2023.docx", "A 40265-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 40265-2023.docx", "A 40265-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 40265-2023.docx", "A 40265-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 40263-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ÖVERKALIX</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Blå taggsvamp</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/artfynd/A 40263-2023.xlsx", "A 40263-2023")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/kartor/A 40263-2023.png", "A 40263-2023")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomål/A 40263-2023.docx", "A 40263-2023")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/klagomålsmail/A 40263-2023.docx", "A 40263-2023")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsyn/A 40263-2023.docx", "A 40263-2023")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVERKALIX/tillsynsmail/A 40263-2023.docx", "A 40263-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 37780-2018</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>43335</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ÖVERKALIX</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-    </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 39237-2018</t>
+          <t>A 37780-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43339</v>
+        <v>43335</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2977,7 +3010,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3014,14 +3047,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38506-2018</t>
+          <t>A 39237-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3033,13 +3066,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>30.7</v>
+        <v>6.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3076,14 +3104,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 39027-2018</t>
+          <t>A 38506-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43340</v>
+        <v>43339</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3095,8 +3123,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>24.9</v>
+        <v>30.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3133,14 +3166,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 39559-2018</t>
+          <t>A 39027-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43341</v>
+        <v>43340</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3153,7 +3186,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>24.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3190,14 +3223,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 40942-2018</t>
+          <t>A 39559-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43346</v>
+        <v>43341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3210,7 +3243,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3247,14 +3280,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54013-2018</t>
+          <t>A 40942-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43390</v>
+        <v>43346</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3267,7 +3300,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3304,14 +3337,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58356-2018</t>
+          <t>A 54013-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43398</v>
+        <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3324,7 +3357,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3361,14 +3394,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58345-2018</t>
+          <t>A 58356-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3381,7 +3414,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3418,14 +3451,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 59039-2018</t>
+          <t>A 58345-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43402</v>
+        <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3438,7 +3471,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,14 +3508,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59043-2018</t>
+          <t>A 59039-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3495,7 +3528,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3532,14 +3565,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59424-2018</t>
+          <t>A 59043-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43418</v>
+        <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3551,13 +3584,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3594,14 +3622,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 64056-2018</t>
+          <t>A 59424-2018</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43419</v>
+        <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3613,8 +3641,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3651,14 +3684,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 63482-2018</t>
+          <t>A 64056-2018</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43427</v>
+        <v>43419</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3670,13 +3703,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>17.3</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3713,14 +3741,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 63486-2018</t>
+          <t>A 63482-2018</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3738,7 +3766,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>83.90000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3775,14 +3803,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 67948-2018</t>
+          <t>A 63486-2018</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43437</v>
+        <v>43427</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3794,8 +3822,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3832,14 +3865,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 67944-2018</t>
+          <t>A 67948-2018</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3885,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3889,14 +3922,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 69541-2018</t>
+          <t>A 67944-2018</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43444</v>
+        <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3909,7 +3942,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>15.5</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3946,14 +3979,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 69821-2018</t>
+          <t>A 69541-2018</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3966,7 +3999,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.4</v>
+        <v>15.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4003,14 +4036,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 72332-2018</t>
+          <t>A 69821-2018</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43460</v>
+        <v>43444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4023,7 +4056,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4060,14 +4093,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 72333-2018</t>
+          <t>A 72332-2018</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4080,7 +4113,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4117,14 +4150,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 88-2019</t>
+          <t>A 72333-2018</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43467</v>
+        <v>43460</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4136,13 +4169,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>10.3</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4179,14 +4207,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 85-2019</t>
+          <t>A 88-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4232,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>20.1</v>
+        <v>10.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4241,14 +4269,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 117-2019</t>
+          <t>A 85-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4294,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>20.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4303,14 +4331,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 3801-2019</t>
+          <t>A 117-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43475</v>
+        <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4322,8 +4350,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4360,14 +4393,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3740-2019</t>
+          <t>A 3801-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43481</v>
+        <v>43475</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4413,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4417,14 +4450,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5518-2019</t>
+          <t>A 3740-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43489</v>
+        <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4470,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4474,14 +4507,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10495-2019</t>
+          <t>A 5518-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43511</v>
+        <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4493,13 +4526,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4536,14 +4564,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10398-2019</t>
+          <t>A 10495-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4555,8 +4583,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4593,14 +4626,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14520-2019</t>
+          <t>A 10398-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43535</v>
+        <v>43511</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4613,7 +4646,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4650,14 +4683,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 18170-2019</t>
+          <t>A 14520-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43558</v>
+        <v>43535</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4669,13 +4702,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>19.2</v>
+        <v>7.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4712,14 +4740,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18173-2019</t>
+          <t>A 18170-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4765,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>10.2</v>
+        <v>19.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4774,14 +4802,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20310-2019</t>
+          <t>A 18173-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43570</v>
+        <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4793,8 +4821,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>4.6</v>
+        <v>10.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4831,14 +4864,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28768-2019</t>
+          <t>A 20310-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43616</v>
+        <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4884,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4888,14 +4921,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 31427-2019</t>
+          <t>A 28768-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43636</v>
+        <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4941,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4945,14 +4978,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38326-2019</t>
+          <t>A 31427-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43684</v>
+        <v>43636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4964,13 +4997,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5007,14 +5035,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38325-2019</t>
+          <t>A 38326-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5032,7 +5060,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5069,14 +5097,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38433-2019</t>
+          <t>A 38325-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5090,11 +5118,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5131,14 +5159,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39007-2019</t>
+          <t>A 38433-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43689</v>
+        <v>43685</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5156,7 +5184,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5193,14 +5221,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39013-2019</t>
+          <t>A 39007-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5218,7 +5246,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5255,14 +5283,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39008-2019</t>
+          <t>A 39013-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5280,7 +5308,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5317,14 +5345,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40115-2019</t>
+          <t>A 39008-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43693</v>
+        <v>43689</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5342,7 +5370,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5379,14 +5407,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40146-2019</t>
+          <t>A 40115-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5404,7 +5432,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5441,14 +5469,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40260-2019</t>
+          <t>A 40146-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43695</v>
+        <v>43693</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,8 +5488,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>27.4</v>
+        <v>5.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5498,14 +5531,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42561-2019</t>
+          <t>A 40260-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43699</v>
+        <v>43695</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5518,7 +5551,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>27.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5555,14 +5588,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42591-2019</t>
+          <t>A 42561-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5575,7 +5608,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5612,14 +5645,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42574-2019</t>
+          <t>A 42591-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5632,7 +5665,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5669,14 +5702,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42577-2019</t>
+          <t>A 42574-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5689,7 +5722,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5726,14 +5759,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42586-2019</t>
+          <t>A 42577-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5746,7 +5779,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5783,14 +5816,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42916-2019</t>
+          <t>A 42586-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43700</v>
+        <v>43699</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5803,7 +5836,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5840,14 +5873,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43365-2019</t>
+          <t>A 42916-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43706</v>
+        <v>43700</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5860,7 +5893,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5897,14 +5930,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45957-2019</t>
+          <t>A 43365-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43712</v>
+        <v>43706</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5917,7 +5950,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5954,14 +5987,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 47274-2019</t>
+          <t>A 45957-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43721</v>
+        <v>43712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5974,7 +6007,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6011,14 +6044,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49277-2019</t>
+          <t>A 47274-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6031,7 +6064,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>13.7</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6068,14 +6101,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52645-2019</t>
+          <t>A 49277-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43738</v>
+        <v>43728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6088,7 +6121,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.5</v>
+        <v>13.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6125,14 +6158,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52819-2019</t>
+          <t>A 52645-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43739</v>
+        <v>43738</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6145,7 +6178,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6182,14 +6215,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52157-2019</t>
+          <t>A 52819-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43742</v>
+        <v>43739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6201,13 +6234,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6244,14 +6272,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 54760-2019</t>
+          <t>A 52157-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43748</v>
+        <v>43742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,8 +6291,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6301,14 +6334,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 54123-2019</t>
+          <t>A 54760-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43752</v>
+        <v>43748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,13 +6353,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6363,14 +6391,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54124-2019</t>
+          <t>A 54123-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6388,7 +6416,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6425,14 +6453,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 55364-2019</t>
+          <t>A 54124-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43756</v>
+        <v>43752</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6450,7 +6478,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>41.2</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6487,14 +6515,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56925-2019</t>
+          <t>A 55364-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43759</v>
+        <v>43756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6506,8 +6534,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>8.6</v>
+        <v>41.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6544,14 +6577,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56687-2019</t>
+          <t>A 56925-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6564,7 +6597,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>8.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6601,14 +6634,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 57779-2019</t>
+          <t>A 56687-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43762</v>
+        <v>43759</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6658,14 +6691,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56719-2019</t>
+          <t>A 57779-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6677,13 +6710,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6720,14 +6748,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58779-2019</t>
+          <t>A 56719-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43773</v>
+        <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6739,8 +6767,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6777,14 +6810,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60104-2019</t>
+          <t>A 58779-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43777</v>
+        <v>43773</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6796,13 +6829,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6839,14 +6867,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62077-2019</t>
+          <t>A 60104-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43782</v>
+        <v>43777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6858,8 +6886,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6896,14 +6929,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 62031-2019</t>
+          <t>A 62077-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6916,7 +6949,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6953,14 +6986,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61527-2019</t>
+          <t>A 62031-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6972,13 +7005,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7015,14 +7043,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61525-2019</t>
+          <t>A 61527-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7040,7 +7068,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7077,14 +7105,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61531-2019</t>
+          <t>A 61525-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7102,7 +7130,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7139,14 +7167,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61532-2019</t>
+          <t>A 61531-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7164,7 +7192,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7201,14 +7229,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 64019-2019</t>
+          <t>A 61532-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43791</v>
+        <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7220,8 +7248,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7258,14 +7291,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 64022-2019</t>
+          <t>A 64019-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7278,7 +7311,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7315,14 +7348,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63216-2019</t>
+          <t>A 64022-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7334,13 +7367,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7377,14 +7405,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 67113-2019</t>
+          <t>A 63216-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43805</v>
+        <v>43791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7396,8 +7424,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7434,14 +7467,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 67100-2019</t>
+          <t>A 67113-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7454,7 +7487,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7491,14 +7524,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1359-2020</t>
+          <t>A 67100-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43843</v>
+        <v>43805</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7511,7 +7544,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7548,14 +7581,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 1832-2020</t>
+          <t>A 1359-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43844</v>
+        <v>43843</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7568,7 +7601,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7605,14 +7638,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 1839-2020</t>
+          <t>A 1832-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7625,7 +7658,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7662,14 +7695,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 1836-2020</t>
+          <t>A 1839-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7682,7 +7715,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7719,14 +7752,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3694-2020</t>
+          <t>A 1836-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43845</v>
+        <v>43844</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7739,7 +7772,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7776,14 +7809,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4667-2020</t>
+          <t>A 3694-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43852</v>
+        <v>43845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7796,7 +7829,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7833,14 +7866,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5361-2020</t>
+          <t>A 4667-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43860</v>
+        <v>43852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7853,7 +7886,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7890,14 +7923,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8582-2020</t>
+          <t>A 5361-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43875</v>
+        <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7910,7 +7943,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7947,14 +7980,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10820-2020</t>
+          <t>A 8582-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43888</v>
+        <v>43875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7966,13 +7999,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8009,14 +8037,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 10819-2020</t>
+          <t>A 10820-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8034,7 +8062,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.9</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8071,14 +8099,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 12491-2020</t>
+          <t>A 10819-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43892</v>
+        <v>43888</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8090,8 +8118,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8128,14 +8161,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12493-2020</t>
+          <t>A 12491-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8148,7 +8181,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8185,14 +8218,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13601-2020</t>
+          <t>A 12493-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43896</v>
+        <v>43892</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8205,7 +8238,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8242,14 +8275,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13596-2020</t>
+          <t>A 13601-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8262,7 +8295,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8299,14 +8332,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 14906-2020</t>
+          <t>A 13596-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>43903</v>
+        <v>43896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8318,13 +8351,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>16.8</v>
+        <v>8.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8361,14 +8389,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 15646-2020</t>
+          <t>A 14906-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43914</v>
+        <v>43903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8386,7 +8414,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>9.6</v>
+        <v>16.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8423,14 +8451,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 16399-2020</t>
+          <t>A 15646-2020</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8448,7 +8476,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>68.59999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8485,14 +8513,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 17085-2020</t>
+          <t>A 16399-2020</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8510,7 +8538,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8547,14 +8575,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19399-2020</t>
+          <t>A 17085-2020</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43938</v>
+        <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8566,8 +8594,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8604,14 +8637,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 21544-2020</t>
+          <t>A 19399-2020</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8624,7 +8657,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>23.7</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8661,14 +8694,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20430-2020</t>
+          <t>A 21544-2020</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8680,13 +8713,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>5.2</v>
+        <v>23.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8723,14 +8751,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 20515-2020</t>
+          <t>A 20430-2020</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8742,8 +8770,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>23.3</v>
+        <v>5.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8780,14 +8813,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 21968-2020</t>
+          <t>A 20515-2020</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43958</v>
+        <v>43945</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8799,13 +8832,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>3.6</v>
+        <v>23.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8842,14 +8870,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 23639-2020</t>
+          <t>A 21968-2020</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43969</v>
+        <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8861,8 +8889,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8899,14 +8932,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 24354-2020</t>
+          <t>A 23639-2020</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43976</v>
+        <v>43969</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8918,13 +8951,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8961,14 +8989,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 24660-2020</t>
+          <t>A 24354-2020</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,11 +9010,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9023,14 +9051,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26866-2020</t>
+          <t>A 24660-2020</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43987</v>
+        <v>43977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,11 +9072,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9085,14 +9113,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 26795-2020</t>
+          <t>A 26866-2020</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43990</v>
+        <v>43987</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9104,8 +9132,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9142,14 +9175,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 27092-2020</t>
+          <t>A 26795-2020</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9161,13 +9194,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9204,14 +9232,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 30971-2020</t>
+          <t>A 27092-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44011</v>
+        <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9229,7 +9257,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>13.6</v>
+        <v>0.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9266,14 +9294,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31065-2020</t>
+          <t>A 30971-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9285,8 +9313,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>13.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9323,14 +9356,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33718-2020</t>
+          <t>A 31065-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44026</v>
+        <v>44012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9342,13 +9375,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9385,14 +9413,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33704-2020</t>
+          <t>A 33718-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9410,7 +9438,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9447,14 +9475,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33713-2020</t>
+          <t>A 33704-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9472,7 +9500,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9509,14 +9537,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34664-2020</t>
+          <t>A 33713-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44034</v>
+        <v>44026</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9530,11 +9558,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9571,14 +9599,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43661-2020</t>
+          <t>A 34664-2020</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44082</v>
+        <v>44034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9588,6 +9616,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>ÖVERKALIX</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -9628,14 +9661,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43836-2020</t>
+          <t>A 43661-2020</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9647,13 +9680,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9690,14 +9718,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45361-2020</t>
+          <t>A 43836-2020</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44085</v>
+        <v>44082</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9709,8 +9737,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>8.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9747,14 +9780,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 46372-2020</t>
+          <t>A 45361-2020</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44092</v>
+        <v>44085</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9766,13 +9799,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9809,14 +9837,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48585-2020</t>
+          <t>A 46372-2020</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44098</v>
+        <v>44092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9828,8 +9856,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9866,14 +9899,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53747-2020</t>
+          <t>A 48585-2020</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44124</v>
+        <v>44098</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9885,13 +9918,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9928,14 +9956,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 60602-2020</t>
+          <t>A 53747-2020</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44153</v>
+        <v>44124</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,8 +9975,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9985,14 +10018,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 62022-2020</t>
+          <t>A 60602-2020</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44159</v>
+        <v>44153</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10004,13 +10037,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10047,14 +10075,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 62241-2020</t>
+          <t>A 62022-2020</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10072,7 +10100,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>9.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10109,14 +10137,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 67584-2020</t>
+          <t>A 62241-2020</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44181</v>
+        <v>44160</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10128,8 +10156,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10166,14 +10199,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 67285-2020</t>
+          <t>A 67584-2020</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10186,7 +10219,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10223,14 +10256,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 68189-2020</t>
+          <t>A 67285-2020</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10243,7 +10276,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10280,14 +10313,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 69534-2020</t>
+          <t>A 68189-2020</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44194</v>
+        <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,13 +10332,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.8</v>
+        <v>8.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10342,14 +10370,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 69529-2020</t>
+          <t>A 69534-2020</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10367,7 +10395,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10404,14 +10432,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1481-2021</t>
+          <t>A 69529-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10425,11 +10453,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>8.6</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10466,14 +10494,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 7744-2021</t>
+          <t>A 1481-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44242</v>
+        <v>44208</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10485,8 +10513,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>8.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10523,14 +10556,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 8224-2021</t>
+          <t>A 7744-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10543,7 +10576,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10580,14 +10613,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 15075-2021</t>
+          <t>A 8224-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44281</v>
+        <v>44244</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10600,7 +10633,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10637,14 +10670,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 19802-2021</t>
+          <t>A 15075-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44312</v>
+        <v>44281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10657,7 +10690,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10694,14 +10727,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 26362-2021</t>
+          <t>A 19802-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44347</v>
+        <v>44312</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10714,7 +10747,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10751,14 +10784,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 26644-2021</t>
+          <t>A 26362-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10771,7 +10804,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10808,14 +10841,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 28364-2021</t>
+          <t>A 26644-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44356</v>
+        <v>44348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10828,7 +10861,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10865,14 +10898,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 29268-2021</t>
+          <t>A 28364-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44361</v>
+        <v>44356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10884,13 +10917,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>12.4</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10927,14 +10955,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 29775-2021</t>
+          <t>A 29268-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10952,7 +10980,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>12.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10989,14 +11017,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32521-2021</t>
+          <t>A 29775-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44374</v>
+        <v>44362</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11008,8 +11036,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11046,14 +11079,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36896-2021</t>
+          <t>A 32521-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44393</v>
+        <v>44374</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11066,7 +11099,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.6</v>
+        <v>7.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11103,14 +11136,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 36921-2021</t>
+          <t>A 36896-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11123,7 +11156,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>12</v>
+        <v>4.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11160,14 +11193,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 40026-2021</t>
+          <t>A 36921-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44417</v>
+        <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11180,7 +11213,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11217,14 +11250,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 39974-2021</t>
+          <t>A 40026-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11237,7 +11270,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>21.6</v>
+        <v>5.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11274,14 +11307,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 41706-2021</t>
+          <t>A 39974-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11294,7 +11327,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>10.2</v>
+        <v>21.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11331,14 +11364,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 41541-2021</t>
+          <t>A 41706-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11351,7 +11384,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.4</v>
+        <v>10.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11388,14 +11421,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 41691-2021</t>
+          <t>A 41541-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11408,7 +11441,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11445,14 +11478,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 41839-2021</t>
+          <t>A 41691-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11464,13 +11497,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11507,14 +11535,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 43687-2021</t>
+          <t>A 41839-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,11 +11556,11 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11569,14 +11597,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 44306-2021</t>
+          <t>A 43687-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11594,7 +11622,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11631,14 +11659,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 44309-2021</t>
+          <t>A 44306-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11656,7 +11684,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11693,14 +11721,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 44798-2021</t>
+          <t>A 44309-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11712,8 +11740,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11750,14 +11783,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 44830-2021</t>
+          <t>A 44798-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11803,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11807,14 +11840,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46790-2021</t>
+          <t>A 44830-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44445</v>
+        <v>44438</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11860,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11864,14 +11897,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 46945-2021</t>
+          <t>A 46790-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11884,7 +11917,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11921,14 +11954,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47629-2021</t>
+          <t>A 46945-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11941,7 +11974,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11978,14 +12011,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 51022-2021</t>
+          <t>A 47629-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44460</v>
+        <v>44448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11997,13 +12030,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>18.4</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12040,14 +12068,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53328-2021</t>
+          <t>A 51022-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44466</v>
+        <v>44460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12059,8 +12087,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>10.2</v>
+        <v>18.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12097,14 +12130,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 52869-2021</t>
+          <t>A 53328-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12117,7 +12150,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>12.6</v>
+        <v>10.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12154,14 +12187,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53322-2021</t>
+          <t>A 52869-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12174,7 +12207,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>19.4</v>
+        <v>12.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12211,14 +12244,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 54143-2021</t>
+          <t>A 53322-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12231,7 +12264,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>19.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12268,14 +12301,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 62259-2021</t>
+          <t>A 54143-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44501</v>
+        <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12288,7 +12321,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12325,14 +12358,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62269-2021</t>
+          <t>A 62259-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12345,7 +12378,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12382,14 +12415,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 62654-2021</t>
+          <t>A 62269-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12402,7 +12435,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>28.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12439,14 +12472,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 63594-2021</t>
+          <t>A 62654-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44508</v>
+        <v>44503</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12459,7 +12492,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>11.3</v>
+        <v>28.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12496,14 +12529,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 64304-2021</t>
+          <t>A 63594-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12515,13 +12548,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>6.6</v>
+        <v>11.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12558,14 +12586,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 69110-2021</t>
+          <t>A 64304-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44530</v>
+        <v>44510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12577,8 +12605,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12615,14 +12648,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 71902-2021</t>
+          <t>A 69110-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44539</v>
+        <v>44530</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12635,7 +12668,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>24</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12672,14 +12705,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 72364-2021</t>
+          <t>A 71902-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12692,7 +12725,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>6.1</v>
+        <v>24</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12729,14 +12762,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 72616-2021</t>
+          <t>A 72364-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44546</v>
+        <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12749,7 +12782,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>26</v>
+        <v>6.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12786,14 +12819,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 72550-2021</t>
+          <t>A 72616-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12806,7 +12839,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12843,14 +12876,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 72601-2021</t>
+          <t>A 72550-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12863,7 +12896,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12900,14 +12933,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 72809-2021</t>
+          <t>A 72601-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12920,7 +12953,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12957,14 +12990,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 72623-2021</t>
+          <t>A 72809-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12977,7 +13010,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13014,14 +13047,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 72877-2021</t>
+          <t>A 72623-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13034,7 +13067,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>14</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13071,14 +13104,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 73221-2021</t>
+          <t>A 72877-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13091,7 +13124,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.8</v>
+        <v>14</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13128,14 +13161,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 73216-2021</t>
+          <t>A 73221-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13148,7 +13181,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13185,14 +13218,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 73348-2021</t>
+          <t>A 73216-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13205,7 +13238,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13242,14 +13275,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 73757-2021</t>
+          <t>A 73348-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13262,7 +13295,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13299,14 +13332,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 73759-2021</t>
+          <t>A 73757-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13319,7 +13352,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13356,14 +13389,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 1525-2022</t>
+          <t>A 73759-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44573</v>
+        <v>44551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13376,7 +13409,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13413,14 +13446,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 1944-2022</t>
+          <t>A 1525-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13433,7 +13466,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13470,14 +13503,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 3174-2022</t>
+          <t>A 1944-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44582</v>
+        <v>44575</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13490,7 +13523,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>10.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13527,14 +13560,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 5653-2022</t>
+          <t>A 3174-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44595</v>
+        <v>44582</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13546,13 +13579,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13589,14 +13617,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6916-2022</t>
+          <t>A 5653-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44602</v>
+        <v>44595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13614,7 +13642,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>15.6</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13651,14 +13679,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 7039-2022</t>
+          <t>A 6916-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13672,11 +13700,11 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>10.3</v>
+        <v>15.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13713,14 +13741,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 7677-2022</t>
+          <t>A 7039-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44607</v>
+        <v>44603</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13734,11 +13762,11 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13775,14 +13803,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7692-2022</t>
+          <t>A 7677-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13800,7 +13828,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13837,14 +13865,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8727-2022</t>
+          <t>A 7692-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44613</v>
+        <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13856,8 +13884,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13894,14 +13927,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 10930-2022</t>
+          <t>A 8727-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44627</v>
+        <v>44613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13913,13 +13946,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13956,14 +13984,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 13465-2022</t>
+          <t>A 10930-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44645</v>
+        <v>44627</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13975,8 +14003,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14013,14 +14046,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 13463-2022</t>
+          <t>A 13465-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14033,7 +14066,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14070,14 +14103,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13467-2022</t>
+          <t>A 13463-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14090,7 +14123,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>6.8</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14127,14 +14160,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13717-2022</t>
+          <t>A 13467-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44648</v>
+        <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14147,7 +14180,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14184,14 +14217,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 15133-2022</t>
+          <t>A 13717-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44658</v>
+        <v>44648</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14204,7 +14237,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>7.9</v>
+        <v>2.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14241,14 +14274,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15301-2022</t>
+          <t>A 15133-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14261,7 +14294,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>7.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14298,14 +14331,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 17850-2022</t>
+          <t>A 15301-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44683</v>
+        <v>44659</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14318,7 +14351,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14355,14 +14388,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 20242-2022</t>
+          <t>A 17850-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44698</v>
+        <v>44683</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14375,7 +14408,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>8.9</v>
+        <v>4.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14412,14 +14445,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 20335-2022</t>
+          <t>A 20242-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14432,7 +14465,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14469,14 +14502,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 21847-2022</t>
+          <t>A 20335-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44711</v>
+        <v>44698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14488,13 +14521,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14531,14 +14559,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 22943-2022</t>
+          <t>A 21847-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14556,7 +14584,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14593,14 +14621,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 22977-2022</t>
+          <t>A 22943-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44717</v>
+        <v>44715</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14612,8 +14640,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14650,14 +14683,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 22976-2022</t>
+          <t>A 22977-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14670,7 +14703,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14707,14 +14740,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 22988-2022</t>
+          <t>A 22976-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44718</v>
+        <v>44717</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14727,7 +14760,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>13.2</v>
+        <v>2.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14764,14 +14797,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 23702-2022</t>
+          <t>A 22988-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44722</v>
+        <v>44718</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14783,13 +14816,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>13.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14826,14 +14854,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 29712-2022</t>
+          <t>A 23702-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44755</v>
+        <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14847,11 +14875,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14888,14 +14916,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 32091-2022</t>
+          <t>A 29712-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44778</v>
+        <v>44755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14907,8 +14935,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14945,14 +14978,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 33100-2022</t>
+          <t>A 32091-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44785</v>
+        <v>44778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14964,13 +14997,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15007,14 +15035,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 34261-2022</t>
+          <t>A 33100-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44791</v>
+        <v>44785</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15028,11 +15056,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15069,14 +15097,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 35170-2022</t>
+          <t>A 34261-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44797</v>
+        <v>44791</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15090,11 +15118,11 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15131,14 +15159,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 35420-2022</t>
+          <t>A 35170-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15150,8 +15178,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15188,14 +15221,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 37236-2022</t>
+          <t>A 35420-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44806</v>
+        <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15208,7 +15241,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15245,14 +15278,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 39403-2022</t>
+          <t>A 37236-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44817</v>
+        <v>44806</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15264,13 +15297,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>16.6</v>
+        <v>4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15307,14 +15335,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 39405-2022</t>
+          <t>A 39403-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15332,7 +15360,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>8.800000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15369,14 +15397,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 40260-2022</t>
+          <t>A 39405-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44820</v>
+        <v>44817</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15388,8 +15416,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15426,14 +15459,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 41120-2022</t>
+          <t>A 40260-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44825</v>
+        <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15446,7 +15479,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15483,14 +15516,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 42407-2022</t>
+          <t>A 41120-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44830</v>
+        <v>44825</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15503,7 +15536,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15540,14 +15573,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 43314-2022</t>
+          <t>A 42407-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44834</v>
+        <v>44830</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15560,7 +15593,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>13.1</v>
+        <v>9.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15597,14 +15630,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 46347-2022</t>
+          <t>A 43314-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44847</v>
+        <v>44834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15616,13 +15649,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>1.2</v>
+        <v>13.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15659,14 +15687,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 49843-2022</t>
+          <t>A 46347-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44862</v>
+        <v>44847</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15678,8 +15706,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15716,14 +15749,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 52026-2022</t>
+          <t>A 49843-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44872</v>
+        <v>44862</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15735,13 +15768,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>12.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15778,14 +15806,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 52027-2022</t>
+          <t>A 52026-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15803,7 +15831,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.9</v>
+        <v>12.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15840,14 +15868,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 52283-2022</t>
+          <t>A 52027-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44873</v>
+        <v>44872</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15861,11 +15889,11 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15902,14 +15930,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 54380-2022</t>
+          <t>A 52283-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44879</v>
+        <v>44873</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15921,8 +15949,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15959,14 +15992,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 54414-2022</t>
+          <t>A 54380-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15979,7 +16012,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16016,14 +16049,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 53732-2022</t>
+          <t>A 54414-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44880</v>
+        <v>44879</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16036,7 +16069,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16073,14 +16106,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 55684-2022</t>
+          <t>A 53732-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44883</v>
+        <v>44880</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16093,7 +16126,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16130,14 +16163,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 55687-2022</t>
+          <t>A 55684-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16150,7 +16183,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16187,14 +16220,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 55761-2022</t>
+          <t>A 55687-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44886</v>
+        <v>44883</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16207,7 +16240,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16244,14 +16277,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 55203-2022</t>
+          <t>A 55761-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16264,7 +16297,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16301,14 +16334,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 55772-2022</t>
+          <t>A 55203-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16321,7 +16354,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16358,14 +16391,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 57688-2022</t>
+          <t>A 55772-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16378,7 +16411,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16415,14 +16448,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 56416-2022</t>
+          <t>A 57688-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16434,13 +16467,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>11.2</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16477,14 +16505,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 56985-2022</t>
+          <t>A 56416-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16496,8 +16524,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16534,14 +16567,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 56983-2022</t>
+          <t>A 56985-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16554,7 +16587,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16591,14 +16624,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 57836-2022</t>
+          <t>A 56983-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16610,13 +16643,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16653,14 +16681,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 59310-2022</t>
+          <t>A 57836-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16672,8 +16700,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16710,14 +16743,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 57870-2022</t>
+          <t>A 59310-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44899</v>
+        <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16730,7 +16763,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16767,14 +16800,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 57884-2022</t>
+          <t>A 57870-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16786,13 +16819,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>11.8</v>
+        <v>6.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16829,14 +16857,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 59907-2022</t>
+          <t>A 57884-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44908</v>
+        <v>44899</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16848,8 +16876,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>2.9</v>
+        <v>11.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16886,14 +16919,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 60725-2022</t>
+          <t>A 59907-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44913</v>
+        <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16906,7 +16939,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16943,14 +16976,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 62646-2022</t>
+          <t>A 60725-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44925</v>
+        <v>44913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16962,13 +16995,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17005,14 +17033,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 550-2023</t>
+          <t>A 62646-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44930</v>
+        <v>44925</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17024,8 +17052,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17062,14 +17095,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 5694-2023</t>
+          <t>A 550-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44960</v>
+        <v>44930</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17081,13 +17114,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17124,14 +17152,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 5705-2023</t>
+          <t>A 5694-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17149,7 +17177,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17186,14 +17214,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 6917-2023</t>
+          <t>A 5705-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17205,8 +17233,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>9.4</v>
+        <v>2.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17243,14 +17276,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 6939-2023</t>
+          <t>A 6917-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17263,7 +17296,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>16.6</v>
+        <v>9.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17300,14 +17333,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 7448-2023</t>
+          <t>A 6939-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17320,7 +17353,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.7</v>
+        <v>16.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17357,14 +17390,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 7477-2023</t>
+          <t>A 7448-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17377,7 +17410,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17414,14 +17447,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 10711-2023</t>
+          <t>A 7477-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44984</v>
+        <v>44966</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17434,7 +17467,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17471,14 +17504,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 10707-2023</t>
+          <t>A 10711-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17491,7 +17524,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17528,14 +17561,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 10720-2023</t>
+          <t>A 10707-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17548,7 +17581,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17585,14 +17618,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 11915-2023</t>
+          <t>A 10720-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44993</v>
+        <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17605,7 +17638,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17642,14 +17675,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 11919-2023</t>
+          <t>A 11915-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17662,7 +17695,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17699,14 +17732,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 14255-2023</t>
+          <t>A 11919-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45009</v>
+        <v>44993</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17719,7 +17752,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17756,14 +17789,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 21555-2023</t>
+          <t>A 14255-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45061</v>
+        <v>45009</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17776,7 +17809,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17813,14 +17846,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 21562-2023</t>
+          <t>A 21555-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17833,7 +17866,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17870,14 +17903,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 22470-2023</t>
+          <t>A 21562-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45070</v>
+        <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17889,13 +17922,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17932,14 +17960,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 22768-2023</t>
+          <t>A 22470-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45072</v>
+        <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,11 +17981,11 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>36</v>
+        <v>0.4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17994,14 +18022,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 23292-2023</t>
+          <t>A 22768-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45075</v>
+        <v>45072</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18015,11 +18043,11 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -18056,14 +18084,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 23302-2023</t>
+          <t>A 23292-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18081,7 +18109,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>4.4</v>
+        <v>22.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -18118,14 +18146,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 23324-2023</t>
+          <t>A 23302-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45076</v>
+        <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18139,11 +18167,11 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>38</v>
+        <v>4.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18180,14 +18208,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 23964-2023</t>
+          <t>A 23324-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45078</v>
+        <v>45076</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18199,8 +18227,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G288" t="n">
-        <v>8.6</v>
+        <v>38</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18237,14 +18270,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 24892-2023</t>
+          <t>A 23964-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18257,7 +18290,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.7</v>
+        <v>8.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18294,14 +18327,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 24865-2023</t>
+          <t>A 24892-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45085</v>
+        <v>45078</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18313,13 +18346,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G290" t="n">
-        <v>7.8</v>
+        <v>0.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18356,14 +18384,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 26140-2023</t>
+          <t>A 24865-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18375,8 +18403,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G291" t="n">
-        <v>1.6</v>
+        <v>7.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18413,14 +18446,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 26554-2023</t>
+          <t>A 26140-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18432,13 +18465,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G292" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18475,14 +18503,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 27572-2023</t>
+          <t>A 26554-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18500,7 +18528,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18537,14 +18565,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 27681-2023</t>
+          <t>A 27572-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18558,11 +18586,11 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18599,14 +18627,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 27680-2023</t>
+          <t>A 27681-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18618,8 +18646,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G295" t="n">
-        <v>12.3</v>
+        <v>1.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18656,14 +18689,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 31655-2023</t>
+          <t>A 27680-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18676,7 +18709,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>3.9</v>
+        <v>12.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18713,14 +18746,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 34911-2023</t>
+          <t>A 31655-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45141</v>
+        <v>45105</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18733,7 +18766,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>8.6</v>
+        <v>3.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18770,14 +18803,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 34938-2023</t>
+          <t>A 34911-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45142</v>
+        <v>45141</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18789,13 +18822,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18832,14 +18860,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 36839-2023</t>
+          <t>A 34938-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45153</v>
+        <v>45142</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18851,8 +18879,13 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G299" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18889,14 +18922,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 36803-2023</t>
+          <t>A 36839-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45154</v>
+        <v>45153</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18909,7 +18942,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18946,14 +18979,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 40265-2023</t>
+          <t>A 36803-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45169</v>
+        <v>45154</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18965,13 +18998,8 @@
           <t>ÖVERKALIX</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -19015,7 +19043,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19062,7 +19090,7 @@
       </c>
       <c r="R302" s="2" t="inlineStr"/>
     </row>
-    <row r="303">
+    <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
           <t>A 43099-2023</t>
@@ -19072,7 +19100,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19118,6 +19146,63 @@
         <v>0</v>
       </c>
       <c r="R303" s="2" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>A 44265-2023</t>
+        </is>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C304" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>ÖVERKALIX</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>2</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43335</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43339</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43340</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43346</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43419</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43427</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43460</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43475</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43511</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43535</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43684</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43685</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43689</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43693</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43695</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43699</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43700</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43706</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>43721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43738</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>43739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>43742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43752</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43759</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43762</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43773</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43805</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43843</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43844</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43888</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43892</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43917</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43938</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43945</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43969</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43976</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43987</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44011</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44026</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44082</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44085</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44098</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44124</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44153</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44159</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44160</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44181</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44194</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44208</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44242</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44244</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44312</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44347</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44361</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44362</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44374</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44435</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44438</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>44448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44466</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44501</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44502</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44503</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44508</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44530</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44546</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44547</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44573</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44575</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44582</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44603</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44627</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44648</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44658</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44659</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44683</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44711</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44715</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44717</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44718</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44785</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44791</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44797</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44806</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44817</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44825</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44830</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44847</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44862</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44872</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44873</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44879</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44880</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44883</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44890</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44894</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44899</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44925</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44930</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44966</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44993</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45009</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45072</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45076</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45078</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45085</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45086</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45092</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45105</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45141</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45142</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45153</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45154</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45188</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43335</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43339</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43340</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43346</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43419</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43427</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43460</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43475</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43511</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43535</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43684</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43685</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43689</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43693</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43695</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43699</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43700</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43706</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>43721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43738</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>43739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>43742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43752</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43759</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43762</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43773</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43805</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43843</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43844</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43888</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43892</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43917</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43938</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43945</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43969</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43976</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43987</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44011</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44026</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44082</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44085</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44098</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44124</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44153</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44159</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44160</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44181</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44194</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44208</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44242</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44244</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44312</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44347</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44361</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44362</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44374</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44435</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44438</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>44448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44466</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44501</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44502</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44503</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44508</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44530</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44546</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44547</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44573</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44575</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44582</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44603</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44627</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44648</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44658</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44659</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44683</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44711</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44715</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44717</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44718</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44785</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44791</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44797</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44806</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44817</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44825</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44830</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44847</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44862</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44872</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44873</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44879</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44880</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44883</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44890</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44894</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44899</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44925</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44930</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44966</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44993</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45009</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45072</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45076</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45078</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45085</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45086</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45092</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45105</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45141</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45142</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45153</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45154</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45188</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y304"/>
+  <dimension ref="A1:Y305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43335</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43339</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43340</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43346</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43419</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43427</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43460</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43475</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43511</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43535</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43684</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43685</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43689</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43693</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43695</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43699</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43700</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43706</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>43721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43738</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>43739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>43742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43752</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43759</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43762</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43773</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43805</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43843</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43844</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43888</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43892</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43917</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43938</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43945</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43969</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43976</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43987</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44011</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44026</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44082</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44085</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44098</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44124</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44153</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44159</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44160</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44181</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44194</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44208</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44242</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44244</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44312</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44347</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44361</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44362</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44374</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44435</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44438</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>44448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44466</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44501</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44502</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44503</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44508</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44530</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44546</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44547</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44573</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44575</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44582</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44603</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44627</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44648</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44658</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44659</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44683</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44711</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44715</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44717</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44718</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44785</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44791</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44797</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44806</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44817</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44825</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44830</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44847</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44862</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44872</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44873</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44879</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44880</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44883</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44890</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44894</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44899</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44925</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44930</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44966</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44993</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45009</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45072</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45076</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45078</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45085</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45086</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45092</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45105</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45141</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45142</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45153</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45154</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
       </c>
       <c r="R303" s="2" t="inlineStr"/>
     </row>
-    <row r="304">
+    <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
           <t>A 44265-2023</t>
@@ -19157,7 +19157,7 @@
         <v>45188</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19203,6 +19203,68 @@
         <v>0</v>
       </c>
       <c r="R304" s="2" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>A 45845-2023</t>
+        </is>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C305" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>ÖVERKALIX</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>4</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43335</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43339</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43340</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43346</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43419</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43427</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43460</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43475</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43511</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43535</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43684</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43685</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43689</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43693</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43695</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43699</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43700</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43706</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>43721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43738</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>43739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>43742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43752</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43759</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43762</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43773</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43805</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43843</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43844</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43888</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43892</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43917</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43938</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43945</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43969</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43976</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43987</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44011</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44026</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44082</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44085</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44098</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44124</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44153</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44159</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44160</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44181</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44194</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44208</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44242</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44244</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44312</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44347</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44361</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44362</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44374</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44435</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44438</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>44448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44466</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44501</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44502</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44503</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44508</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44530</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44546</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44547</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44573</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44575</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44582</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44603</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44627</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44648</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44658</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44659</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44683</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44711</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44715</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44717</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44718</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44785</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44791</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44797</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44806</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44817</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44825</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44830</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44847</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44862</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44872</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44873</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44879</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44880</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44883</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44890</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44894</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44899</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44925</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44930</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44966</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44993</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45009</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45072</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45076</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45078</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45085</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45086</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45092</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45105</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45141</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45142</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45153</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45154</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45188</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45195</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43335</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43339</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43340</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43346</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43419</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43427</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43460</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43475</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43511</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43535</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43684</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43685</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43689</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43693</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43695</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43699</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43700</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43706</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>43721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43738</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>43739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>43742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43752</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43759</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43762</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43773</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43805</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43843</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43844</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43888</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43892</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43917</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43938</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43945</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43969</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43976</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43987</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44011</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44026</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44082</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44085</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44098</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44124</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44153</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44159</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44160</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44181</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44194</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44208</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44242</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44244</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44312</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44347</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44361</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44362</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44374</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44435</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44438</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>44448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44466</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44501</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44502</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44503</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44508</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44530</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44546</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44547</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44573</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44575</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44582</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44603</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44627</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44648</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44658</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44659</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44683</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44711</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44715</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44717</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44718</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44785</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44791</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44797</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44806</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44817</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44825</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44830</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44847</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44862</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44872</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44873</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44879</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44880</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44883</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44890</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44894</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44899</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44925</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44930</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44966</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44993</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45009</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45072</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45076</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45078</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45085</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45086</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45092</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45105</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45141</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45142</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45153</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45154</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45188</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45195</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y305"/>
+  <dimension ref="A1:Y306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43335</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43339</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43340</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43346</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43419</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43427</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43460</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43475</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43511</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43535</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43684</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43685</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43689</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43693</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43695</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43699</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43700</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43706</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>43721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43738</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>43739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>43742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43752</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43759</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43762</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43773</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43805</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43843</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43844</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43888</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43892</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43917</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43938</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43945</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43969</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43976</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43987</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44011</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44026</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44082</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44085</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44098</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44124</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44153</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44159</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44160</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44181</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44194</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44208</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44242</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44244</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44312</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44347</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44361</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44362</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44374</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44435</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44438</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>44448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44466</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44501</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44502</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44503</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44508</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44530</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44546</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44547</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44573</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44575</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44582</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44603</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44627</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44648</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44658</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44659</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44683</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44711</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44715</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44717</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44718</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44785</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44791</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44797</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44806</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44817</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44825</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44830</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44847</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44862</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44872</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44873</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44879</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44880</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44883</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44890</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44894</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44899</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44925</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44930</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44966</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44993</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45009</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45072</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45076</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45078</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45085</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45086</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45092</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45105</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45141</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45142</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45153</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45154</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45188</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
       </c>
       <c r="R304" s="2" t="inlineStr"/>
     </row>
-    <row r="305">
+    <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
           <t>A 45845-2023</t>
@@ -19214,7 +19214,7 @@
         <v>45195</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19265,6 +19265,68 @@
         <v>0</v>
       </c>
       <c r="R305" s="2" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>A 47706-2023</t>
+        </is>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C306" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>ÖVERKALIX</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44181</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43558</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43642</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44496</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         <v>44113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44596</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44658</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44728</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43661</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43901</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44496</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44656</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44658</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44732</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45152</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45169</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45169</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43335</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43339</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43340</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43341</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43346</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43398</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43419</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43427</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43427</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43460</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43467</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43467</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43467</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43475</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43511</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43535</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43616</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43684</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43684</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43685</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43689</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43689</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43689</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43693</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43693</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43695</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43699</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43699</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43699</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43700</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43706</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>43721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>43728</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43738</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>43739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>43742</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43748</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43752</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43752</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43759</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43759</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43762</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43773</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43777</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43782</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43782</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43783</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43791</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43805</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43843</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43844</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43844</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43844</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>43888</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43888</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43892</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43892</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43896</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43914</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>43917</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43938</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43945</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43945</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43945</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43969</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43976</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43987</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44011</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>44012</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44026</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44026</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44026</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44082</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44082</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44085</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44098</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44124</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44153</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44159</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44160</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44181</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44181</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44194</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44194</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44208</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44242</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44244</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44281</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44312</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44347</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44348</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44356</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44361</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44362</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44374</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44393</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44393</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44417</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44417</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44424</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44435</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44438</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44438</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44446</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>44448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44466</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44466</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44466</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44501</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44502</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44503</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44508</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44530</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44539</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44546</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44546</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44547</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44547</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44547</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44551</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44573</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44575</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44582</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44603</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44627</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44645</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44648</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44658</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44659</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44683</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44711</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44715</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44717</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44717</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44718</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44722</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44785</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44791</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44797</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44806</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44817</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44817</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44820</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44825</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44830</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44847</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44862</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44872</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44872</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44873</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44879</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44880</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44883</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44883</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44886</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44886</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44890</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44894</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44894</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44897</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44899</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44899</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44913</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44925</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44930</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44960</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44966</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44966</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44984</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44984</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44993</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45009</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>45072</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45075</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>45076</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45078</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45078</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45085</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45086</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45092</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45097</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45105</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45141</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45142</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45153</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45154</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45182</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45188</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45195</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
